--- a/excel.xlsx
+++ b/excel.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kayeg\Documents\.hub\3.projects\react.projects\excel.previewer\excel_previewer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA57C2EA-039E-4A25-B320-C96CB4B1A1D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17D30CF2-80AE-433C-9FDA-40E8E5E82887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>A</t>
   </si>
@@ -34,6 +45,9 @@
   </si>
   <si>
     <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
   </si>
 </sst>
 </file>
@@ -57,7 +71,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -65,12 +79,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -351,45 +386,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>2</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>3</v>
       </c>
+      <c r="D2" s="1">
+        <f>SUM(A2:C2)</f>
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>5</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>6</v>
+      </c>
+      <c r="D3" s="1">
+        <f>SUM(A3:C3)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="1">
+        <f>SUM(D2:D3)</f>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
